--- a/P0181_CW8630智能时光语控闹钟通讯协议_V3.xlsx
+++ b/P0181_CW8630智能时光语控闹钟通讯协议_V3.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="230">
   <si>
     <t>CW8630智能时光语控闹钟通讯协议V1.0_20240413</t>
   </si>
@@ -725,6 +725,9 @@
   </si>
   <si>
     <t>0xA9</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
 </sst>
 </file>
@@ -1827,10 +1830,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T153"/>
+  <dimension ref="A1:T154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5610,6 +5613,11 @@
       </c>
       <c r="E153" s="2" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
